--- a/fuzzy_stability_analysis/results/fuz_stability_link/L/correlations_matrixes.xlsx
+++ b/fuzzy_stability_analysis/results/fuz_stability_link/L/correlations_matrixes.xlsx
@@ -20,28 +20,28 @@
     <t>Fuzziness coefficient: 1.5</t>
   </si>
   <si>
-    <t>st_0.4_const_ass</t>
-  </si>
-  <si>
-    <t>st_0.6_const_ass</t>
-  </si>
-  <si>
     <t>st_0.8_const_ass</t>
   </si>
   <si>
     <t>st_1_const_ass</t>
   </si>
   <si>
-    <t>st_0.4_thr_0.5</t>
-  </si>
-  <si>
-    <t>st_0.6_thr_0.5</t>
+    <t>st_1.2_const_ass</t>
+  </si>
+  <si>
+    <t>st_1.4_const_ass</t>
   </si>
   <si>
     <t>st_0.8_thr_0.5</t>
   </si>
   <si>
     <t>st_1_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.2_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.4_thr_0.5</t>
   </si>
   <si>
     <t>fuz_1.5_entropy</t>
@@ -492,28 +492,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.503</v>
+        <v>-0.736</v>
       </c>
       <c r="C3">
-        <v>-0.641</v>
+        <v>-0.787</v>
       </c>
       <c r="D3">
-        <v>-0.736</v>
+        <v>-0.798</v>
       </c>
       <c r="E3">
-        <v>-0.787</v>
+        <v>-0.797</v>
       </c>
       <c r="F3">
-        <v>-0.467</v>
+        <v>-0.77</v>
       </c>
       <c r="G3">
-        <v>-0.649</v>
+        <v>-0.8129999999999999</v>
       </c>
       <c r="H3">
-        <v>-0.77</v>
+        <v>-0.8169999999999999</v>
       </c>
       <c r="I3">
-        <v>-0.8129999999999999</v>
+        <v>-0.8090000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -521,28 +521,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.639</v>
+        <v>0.865</v>
       </c>
       <c r="C4">
-        <v>0.787</v>
+        <v>0.881</v>
       </c>
       <c r="D4">
-        <v>0.865</v>
+        <v>0.867</v>
       </c>
       <c r="E4">
+        <v>0.844</v>
+      </c>
+      <c r="F4">
         <v>0.881</v>
       </c>
-      <c r="F4">
-        <v>0.61</v>
-      </c>
       <c r="G4">
-        <v>0.792</v>
+        <v>0.882</v>
       </c>
       <c r="H4">
-        <v>0.881</v>
+        <v>0.86</v>
       </c>
       <c r="I4">
-        <v>0.882</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.324</v>
+        <v>-0.569</v>
       </c>
       <c r="C8">
-        <v>-0.457</v>
+        <v>-0.653</v>
       </c>
       <c r="D8">
-        <v>-0.569</v>
+        <v>-0.6870000000000001</v>
       </c>
       <c r="E8">
-        <v>-0.653</v>
+        <v>-0.709</v>
       </c>
       <c r="F8">
-        <v>-0.282</v>
+        <v>-0.623</v>
       </c>
       <c r="G8">
-        <v>-0.469</v>
+        <v>-0.707</v>
       </c>
       <c r="H8">
-        <v>-0.623</v>
+        <v>-0.736</v>
       </c>
       <c r="I8">
-        <v>-0.707</v>
+        <v>-0.752</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -610,28 +610,28 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.409</v>
+        <v>0.716</v>
       </c>
       <c r="C9">
-        <v>0.588</v>
+        <v>0.795</v>
       </c>
       <c r="D9">
-        <v>0.716</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="E9">
-        <v>0.795</v>
+        <v>0.822</v>
       </c>
       <c r="F9">
-        <v>0.37</v>
+        <v>0.753</v>
       </c>
       <c r="G9">
-        <v>0.596</v>
+        <v>0.825</v>
       </c>
       <c r="H9">
-        <v>0.753</v>
+        <v>0.84</v>
       </c>
       <c r="I9">
-        <v>0.825</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -670,28 +670,28 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.249</v>
+        <v>-0.49</v>
       </c>
       <c r="C13">
-        <v>-0.376</v>
+        <v>-0.581</v>
       </c>
       <c r="D13">
-        <v>-0.49</v>
+        <v>-0.62</v>
       </c>
       <c r="E13">
-        <v>-0.581</v>
+        <v>-0.648</v>
       </c>
       <c r="F13">
-        <v>-0.207</v>
+        <v>-0.548</v>
       </c>
       <c r="G13">
-        <v>-0.389</v>
+        <v>-0.641</v>
       </c>
       <c r="H13">
-        <v>-0.548</v>
+        <v>-0.677</v>
       </c>
       <c r="I13">
-        <v>-0.641</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -699,28 +699,28 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.31</v>
+        <v>0.631</v>
       </c>
       <c r="C14">
-        <v>0.491</v>
+        <v>0.729</v>
       </c>
       <c r="D14">
-        <v>0.631</v>
+        <v>0.763</v>
       </c>
       <c r="E14">
-        <v>0.729</v>
+        <v>0.779</v>
       </c>
       <c r="F14">
-        <v>0.268</v>
+        <v>0.676</v>
       </c>
       <c r="G14">
-        <v>0.501</v>
+        <v>0.77</v>
       </c>
       <c r="H14">
-        <v>0.676</v>
+        <v>0.798</v>
       </c>
       <c r="I14">
-        <v>0.77</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -759,28 +759,28 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-0.202</v>
+        <v>-0.442</v>
       </c>
       <c r="C18">
-        <v>-0.328</v>
+        <v>-0.537</v>
       </c>
       <c r="D18">
-        <v>-0.442</v>
+        <v>-0.578</v>
       </c>
       <c r="E18">
-        <v>-0.537</v>
+        <v>-0.607</v>
       </c>
       <c r="F18">
-        <v>-0.161</v>
+        <v>-0.5</v>
       </c>
       <c r="G18">
-        <v>-0.34</v>
+        <v>-0.597</v>
       </c>
       <c r="H18">
-        <v>-0.5</v>
+        <v>-0.636</v>
       </c>
       <c r="I18">
-        <v>-0.597</v>
+        <v>-0.659</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -788,28 +788,28 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.249</v>
+        <v>0.58</v>
       </c>
       <c r="C19">
-        <v>0.434</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="D19">
-        <v>0.58</v>
+        <v>0.725</v>
       </c>
       <c r="E19">
-        <v>0.6870000000000001</v>
+        <v>0.746</v>
       </c>
       <c r="F19">
-        <v>0.207</v>
+        <v>0.627</v>
       </c>
       <c r="G19">
-        <v>0.444</v>
+        <v>0.731</v>
       </c>
       <c r="H19">
-        <v>0.627</v>
+        <v>0.764</v>
       </c>
       <c r="I19">
-        <v>0.731</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -848,28 +848,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.161</v>
+        <v>-0.405</v>
       </c>
       <c r="C23">
-        <v>-0.288</v>
+        <v>-0.502</v>
       </c>
       <c r="D23">
-        <v>-0.405</v>
+        <v>-0.544</v>
       </c>
       <c r="E23">
-        <v>-0.502</v>
+        <v>-0.573</v>
       </c>
       <c r="F23">
-        <v>-0.121</v>
+        <v>-0.46</v>
       </c>
       <c r="G23">
-        <v>-0.3</v>
+        <v>-0.5610000000000001</v>
       </c>
       <c r="H23">
-        <v>-0.46</v>
+        <v>-0.6</v>
       </c>
       <c r="I23">
-        <v>-0.5610000000000001</v>
+        <v>-0.624</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -877,28 +877,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.197</v>
+        <v>0.536</v>
       </c>
       <c r="C24">
-        <v>0.385</v>
+        <v>0.649</v>
       </c>
       <c r="D24">
-        <v>0.536</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="E24">
-        <v>0.649</v>
+        <v>0.715</v>
       </c>
       <c r="F24">
-        <v>0.155</v>
+        <v>0.583</v>
       </c>
       <c r="G24">
-        <v>0.394</v>
+        <v>0.696</v>
       </c>
       <c r="H24">
-        <v>0.583</v>
+        <v>0.732</v>
       </c>
       <c r="I24">
-        <v>0.696</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -937,28 +937,28 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>-0.118</v>
+        <v>-0.369</v>
       </c>
       <c r="C28">
-        <v>-0.249</v>
+        <v>-0.47</v>
       </c>
       <c r="D28">
-        <v>-0.369</v>
+        <v>-0.513</v>
       </c>
       <c r="E28">
-        <v>-0.47</v>
+        <v>-0.542</v>
       </c>
       <c r="F28">
-        <v>-0.08</v>
+        <v>-0.422</v>
       </c>
       <c r="G28">
-        <v>-0.26</v>
+        <v>-0.526</v>
       </c>
       <c r="H28">
-        <v>-0.422</v>
+        <v>-0.5659999999999999</v>
       </c>
       <c r="I28">
-        <v>-0.526</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -966,28 +966,28 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>0.148</v>
+        <v>0.497</v>
       </c>
       <c r="C29">
-        <v>0.34</v>
+        <v>0.616</v>
       </c>
       <c r="D29">
-        <v>0.497</v>
+        <v>0.661</v>
       </c>
       <c r="E29">
-        <v>0.616</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="F29">
-        <v>0.107</v>
+        <v>0.543</v>
       </c>
       <c r="G29">
-        <v>0.349</v>
+        <v>0.662</v>
       </c>
       <c r="H29">
-        <v>0.543</v>
+        <v>0.702</v>
       </c>
       <c r="I29">
-        <v>0.662</v>
+        <v>0.718</v>
       </c>
     </row>
   </sheetData>
@@ -1039,28 +1039,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.583</v>
+        <v>-0.705</v>
       </c>
       <c r="C3">
-        <v>-0.675</v>
+        <v>-0.6929999999999999</v>
       </c>
       <c r="D3">
-        <v>-0.705</v>
+        <v>-0.674</v>
       </c>
       <c r="E3">
-        <v>-0.6929999999999999</v>
+        <v>-0.6879999999999999</v>
       </c>
       <c r="F3">
-        <v>-0.008</v>
+        <v>-0.732</v>
       </c>
       <c r="G3">
-        <v>-0.703</v>
+        <v>-0.742</v>
       </c>
       <c r="H3">
-        <v>-0.732</v>
+        <v>-0.748</v>
       </c>
       <c r="I3">
-        <v>-0.742</v>
+        <v>-0.737</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1068,28 +1068,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.583</v>
+        <v>0.705</v>
       </c>
       <c r="C4">
-        <v>0.675</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="D4">
-        <v>0.705</v>
+        <v>0.674</v>
       </c>
       <c r="E4">
-        <v>0.6929999999999999</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="F4">
-        <v>0.008</v>
+        <v>0.732</v>
       </c>
       <c r="G4">
-        <v>0.703</v>
+        <v>0.742</v>
       </c>
       <c r="H4">
-        <v>0.732</v>
+        <v>0.748</v>
       </c>
       <c r="I4">
-        <v>0.742</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.579</v>
+        <v>-0.724</v>
       </c>
       <c r="C8">
-        <v>-0.6899999999999999</v>
+        <v>-0.714</v>
       </c>
       <c r="D8">
-        <v>-0.724</v>
+        <v>-0.699</v>
       </c>
       <c r="E8">
-        <v>-0.714</v>
+        <v>-0.713</v>
       </c>
       <c r="F8">
-        <v>0.016</v>
+        <v>-0.752</v>
       </c>
       <c r="G8">
-        <v>-0.721</v>
+        <v>-0.763</v>
       </c>
       <c r="H8">
-        <v>-0.752</v>
+        <v>-0.772</v>
       </c>
       <c r="I8">
-        <v>-0.763</v>
+        <v>-0.761</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.579</v>
+        <v>0.724</v>
       </c>
       <c r="C9">
-        <v>0.6899999999999999</v>
+        <v>0.714</v>
       </c>
       <c r="D9">
-        <v>0.724</v>
+        <v>0.699</v>
       </c>
       <c r="E9">
-        <v>0.714</v>
+        <v>0.713</v>
       </c>
       <c r="F9">
-        <v>-0.016</v>
+        <v>0.752</v>
       </c>
       <c r="G9">
-        <v>0.721</v>
+        <v>0.763</v>
       </c>
       <c r="H9">
-        <v>0.752</v>
+        <v>0.772</v>
       </c>
       <c r="I9">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1217,25 +1217,25 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.535</v>
+        <v>-0.709</v>
       </c>
       <c r="C13">
-        <v>-0.67</v>
+        <v>-0.702</v>
       </c>
       <c r="D13">
-        <v>-0.709</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="E13">
-        <v>-0.702</v>
+        <v>-0.705</v>
       </c>
       <c r="F13">
-        <v>0.054</v>
+        <v>-0.738</v>
       </c>
       <c r="G13">
-        <v>-0.706</v>
+        <v>-0.752</v>
       </c>
       <c r="H13">
-        <v>-0.738</v>
+        <v>-0.763</v>
       </c>
       <c r="I13">
         <v>-0.752</v>
@@ -1246,25 +1246,25 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.535</v>
+        <v>0.709</v>
       </c>
       <c r="C14">
-        <v>0.67</v>
+        <v>0.702</v>
       </c>
       <c r="D14">
-        <v>0.709</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E14">
-        <v>0.702</v>
+        <v>0.705</v>
       </c>
       <c r="F14">
-        <v>-0.054</v>
+        <v>0.738</v>
       </c>
       <c r="G14">
-        <v>0.706</v>
+        <v>0.752</v>
       </c>
       <c r="H14">
-        <v>0.738</v>
+        <v>0.763</v>
       </c>
       <c r="I14">
         <v>0.752</v>
@@ -1306,25 +1306,25 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-0.512</v>
+        <v>-0.697</v>
       </c>
       <c r="C18">
-        <v>-0.656</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="D18">
-        <v>-0.697</v>
+        <v>-0.679</v>
       </c>
       <c r="E18">
-        <v>-0.6899999999999999</v>
+        <v>-0.695</v>
       </c>
       <c r="F18">
-        <v>0.07199999999999999</v>
+        <v>-0.728</v>
       </c>
       <c r="G18">
-        <v>-0.694</v>
+        <v>-0.742</v>
       </c>
       <c r="H18">
-        <v>-0.728</v>
+        <v>-0.752</v>
       </c>
       <c r="I18">
         <v>-0.742</v>
@@ -1335,25 +1335,25 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.512</v>
+        <v>0.697</v>
       </c>
       <c r="C19">
-        <v>0.656</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D19">
-        <v>0.697</v>
+        <v>0.679</v>
       </c>
       <c r="E19">
-        <v>0.6899999999999999</v>
+        <v>0.695</v>
       </c>
       <c r="F19">
-        <v>-0.07199999999999999</v>
+        <v>0.728</v>
       </c>
       <c r="G19">
-        <v>0.694</v>
+        <v>0.742</v>
       </c>
       <c r="H19">
-        <v>0.728</v>
+        <v>0.752</v>
       </c>
       <c r="I19">
         <v>0.742</v>
@@ -1395,28 +1395,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.467</v>
+        <v>-0.659</v>
       </c>
       <c r="C23">
-        <v>-0.617</v>
+        <v>-0.655</v>
       </c>
       <c r="D23">
-        <v>-0.659</v>
+        <v>-0.645</v>
       </c>
       <c r="E23">
-        <v>-0.655</v>
+        <v>-0.663</v>
       </c>
       <c r="F23">
-        <v>0.108</v>
+        <v>-0.7</v>
       </c>
       <c r="G23">
-        <v>-0.668</v>
+        <v>-0.715</v>
       </c>
       <c r="H23">
-        <v>-0.7</v>
+        <v>-0.726</v>
       </c>
       <c r="I23">
-        <v>-0.715</v>
+        <v>-0.717</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1424,28 +1424,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.467</v>
+        <v>0.659</v>
       </c>
       <c r="C24">
-        <v>0.617</v>
+        <v>0.655</v>
       </c>
       <c r="D24">
-        <v>0.659</v>
+        <v>0.645</v>
       </c>
       <c r="E24">
-        <v>0.655</v>
+        <v>0.663</v>
       </c>
       <c r="F24">
-        <v>-0.108</v>
+        <v>0.7</v>
       </c>
       <c r="G24">
-        <v>0.668</v>
+        <v>0.715</v>
       </c>
       <c r="H24">
-        <v>0.7</v>
+        <v>0.726</v>
       </c>
       <c r="I24">
-        <v>0.715</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1484,28 +1484,28 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>-0.442</v>
+        <v>-0.638</v>
       </c>
       <c r="C28">
-        <v>-0.597</v>
+        <v>-0.633</v>
       </c>
       <c r="D28">
-        <v>-0.638</v>
+        <v>-0.622</v>
       </c>
       <c r="E28">
-        <v>-0.633</v>
+        <v>-0.641</v>
       </c>
       <c r="F28">
-        <v>0.126</v>
+        <v>-0.6830000000000001</v>
       </c>
       <c r="G28">
-        <v>-0.654</v>
+        <v>-0.698</v>
       </c>
       <c r="H28">
-        <v>-0.6830000000000001</v>
+        <v>-0.709</v>
       </c>
       <c r="I28">
-        <v>-0.698</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1513,28 +1513,28 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>0.442</v>
+        <v>0.638</v>
       </c>
       <c r="C29">
-        <v>0.597</v>
+        <v>0.633</v>
       </c>
       <c r="D29">
-        <v>0.638</v>
+        <v>0.622</v>
       </c>
       <c r="E29">
-        <v>0.633</v>
+        <v>0.641</v>
       </c>
       <c r="F29">
-        <v>-0.126</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="G29">
-        <v>0.654</v>
+        <v>0.698</v>
       </c>
       <c r="H29">
-        <v>0.6830000000000001</v>
+        <v>0.709</v>
       </c>
       <c r="I29">
-        <v>0.698</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
